--- a/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2023.xlsx
+++ b/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2023.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="43">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAQUE C/C BANCO24HORAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descobrir</t>
   </si>
   <si>
     <t xml:space="preserve">Saque</t>
@@ -297,13 +294,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
+      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,7 +336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>44930</v>
       </c>
@@ -362,7 +359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>44930</v>
       </c>
@@ -385,7 +382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>44935</v>
       </c>
@@ -408,7 +405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>44935</v>
       </c>
@@ -431,7 +428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>44935</v>
       </c>
@@ -454,7 +451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>44935</v>
       </c>
@@ -477,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>44935</v>
       </c>
@@ -500,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>44949</v>
       </c>
@@ -523,7 +520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>44949</v>
       </c>
@@ -546,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>44951</v>
       </c>
@@ -569,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>44951</v>
       </c>
@@ -592,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>44951</v>
       </c>
@@ -615,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>44956</v>
       </c>
@@ -661,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>44958</v>
       </c>
@@ -684,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>44966</v>
       </c>
@@ -707,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>44966</v>
       </c>
@@ -730,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44972</v>
       </c>
@@ -753,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>44972</v>
       </c>
@@ -776,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>44973</v>
       </c>
@@ -799,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>44973</v>
       </c>
@@ -822,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>44984</v>
       </c>
@@ -845,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>44984</v>
       </c>
@@ -868,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>44984</v>
       </c>
@@ -891,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>44991</v>
       </c>
@@ -914,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>44991</v>
       </c>
@@ -937,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>45000</v>
       </c>
@@ -960,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>45000</v>
       </c>
@@ -983,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>45000</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>45000</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>45002</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>45002</v>
       </c>
@@ -1075,7 +1072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>45007</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>45007</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>45026</v>
       </c>
@@ -1144,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>45026</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>45028</v>
       </c>
@@ -1213,7 +1210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>45028</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>45041</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>45041</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>45050</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>45050</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>45051</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
         <v>45051</v>
       </c>
@@ -1374,7 +1371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>45063</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1397,7 +1394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>45063</v>
       </c>
@@ -1420,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>45063</v>
       </c>
@@ -1443,7 +1440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
         <v>45071</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>45071</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
         <v>45096</v>
       </c>
@@ -1497,14 +1494,14 @@
         <v>-176.09</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
         <v>45096</v>
       </c>
@@ -1543,7 +1540,7 @@
         <v>13.5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>23</v>
@@ -1566,7 +1563,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>27</v>
@@ -1581,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
         <v>45096</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
         <v>45099</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>45099</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
         <v>45103</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>45103</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
         <v>45110</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>23</v>
@@ -1742,7 +1739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
         <v>45126</v>
       </c>
@@ -1750,13 +1747,13 @@
         <v>-20</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1765,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
         <v>45126</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
         <v>45132</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
         <v>45132</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
         <v>45132</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
         <v>45159</v>
       </c>
@@ -1865,13 +1862,13 @@
         <v>-20</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1880,7 +1877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
         <v>45159</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
         <v>45167</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
         <v>45168</v>
       </c>
@@ -1934,13 +1931,13 @@
         <v>-20</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -1949,7 +1946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
         <v>45196</v>
       </c>
@@ -1957,13 +1954,13 @@
         <v>-31.91</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -1972,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
         <v>45196</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
         <v>45224</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
         <v>45229</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2041,7 +2038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
         <v>45229</v>
       </c>
@@ -2072,7 +2069,7 @@
         <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>23</v>
@@ -2087,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
         <v>45229</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
         <v>45237</v>
       </c>
@@ -2133,7 +2130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
         <v>45237</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
         <v>45244</v>
       </c>
@@ -2179,7 +2176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>45244</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>45244</v>
       </c>
@@ -2229,17 +2226,7 @@
       <c r="A84" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G83">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="145.039.616-08 "/>
-        <filter val="ALEX MIGUEL DE SOUZA "/>
-        <filter val="Adriano De Freitas Si "/>
-        <filter val="LEACY TAYLA BARBOSA C "/>
-        <filter val="LUCAS E SILVA CAMARA "/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G83"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2023.xlsx
+++ b/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2023.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="42">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">PAGTO ELETRONICO TRIBUTO BRADESCO C-TRANSCON MULTAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Multa</t>
+    <t xml:space="preserve">Taxas/Imposto</t>
   </si>
   <si>
     <t xml:space="preserve">Boleto</t>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">PAGTO ELETRON COBRANCA ANUIDADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxas/Imposto</t>
   </si>
   <si>
     <t xml:space="preserve">LUCAS E SILVA CAMARA</t>
@@ -299,8 +296,8 @@
   </sheetPr>
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1960,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2069,7 +2066,7 @@
         <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>23</v>
